--- a/ali-site-bilgileri.xlsx
+++ b/ali-site-bilgileri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRN\Desktop\mywebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D913B23-1FC8-4F98-BF94-3273D943ECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DBD674-6791-46DF-8A29-40EFD0A6546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Ad</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Ad soyad</t>
   </si>
   <si>
-    <t>Adres</t>
-  </si>
-  <si>
     <t>URL'leriniz</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>instagram</t>
-  </si>
-  <si>
-    <t>TURKEY</t>
   </si>
   <si>
     <t>Bana ait sitedeki mevcut bilgiler</t>
@@ -359,8 +353,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{948E27CA-5C0A-4450-9632-2ADD7B261D38}" name="Tablo1" displayName="Tablo1" ref="B2:E17" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B2:E17" xr:uid="{948E27CA-5C0A-4450-9632-2ADD7B261D38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{948E27CA-5C0A-4450-9632-2ADD7B261D38}" name="Tablo1" displayName="Tablo1" ref="B2:E15" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B2:E15" xr:uid="{948E27CA-5C0A-4450-9632-2ADD7B261D38}"/>
   <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{02B1D963-B4FC-4587-9AE6-45DCD01B20D6}" name="No" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{CE306290-A402-4B34-ADB5-AA2FB95A2BEB}" name="Değiştireceğimiz Bilgiler" dataDxfId="0"/>
@@ -634,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,226 +646,201 @@
   <sheetData>
     <row r="1" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11">
-        <v>905052254151</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="15">
+        <v>5052254151</v>
+      </c>
+      <c r="E13" s="14">
+        <v>5054017002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5052254151</v>
+      </c>
+      <c r="E14" s="11">
         <v>905054017002</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="11">
-        <v>905052254151</v>
-      </c>
-      <c r="E10" s="11">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5052254151</v>
+      </c>
+      <c r="E15" s="11">
         <v>905054017002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="15">
-        <v>5052254151</v>
-      </c>
-      <c r="E11" s="14">
-        <v>5054017002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="E17" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{37E0525C-5CBF-4C7F-B419-A9A4051CD4B8}"/>
-    <hyperlink ref="E13" r:id="rId2" xr:uid="{F914AB4F-1857-49A2-BF1E-8E6BFEBDA466}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{3058ACB8-7325-4F61-A670-ECE5FBDA4E0D}"/>
-    <hyperlink ref="D14" r:id="rId4" xr:uid="{1B9C9D1C-6E59-4341-8C75-22EDD49A5111}"/>
-    <hyperlink ref="D15" r:id="rId5" xr:uid="{BF7299E8-41B4-4380-8999-0B2BF10C6FB0}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{53129B75-6FCA-4FF3-8652-37CED3A476D2}"/>
-    <hyperlink ref="E14" r:id="rId7" xr:uid="{DEEA881D-06E5-4859-AD64-D01A493220D3}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{37E0525C-5CBF-4C7F-B419-A9A4051CD4B8}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{F914AB4F-1857-49A2-BF1E-8E6BFEBDA466}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{3058ACB8-7325-4F61-A670-ECE5FBDA4E0D}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{1B9C9D1C-6E59-4341-8C75-22EDD49A5111}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{BF7299E8-41B4-4380-8999-0B2BF10C6FB0}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{53129B75-6FCA-4FF3-8652-37CED3A476D2}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{DEEA881D-06E5-4859-AD64-D01A493220D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/ali-site-bilgileri.xlsx
+++ b/ali-site-bilgileri.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mywebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCBF105-FB43-4DBD-B825-3E9670FA4151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7BE299-8B2E-49EF-A26C-9C49F1715226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Ad</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>&lt;div id="sfcwftjj9rmgadagmdf3f7ezszu2cuqbu2f"&gt;&lt;/div&gt;&lt;script type="text/javascript" src="https://counter9.stat.ovh/private/counter.js?c=wftjj9rmgadagmdf3f7ezszu2cuqbu2f&amp;down=async" async&gt;&lt;/script&gt;&lt;noscript&gt;&lt;a href="https://www.freecounterstat.com" title="hit counters"&gt;&lt;img src="https://counter9.stat.ovh/private/freecounterstat.php?c=wftjj9rmgadagmdf3f7ezszu2cuqbu2f" border="0" title="hit counters" alt="hit counters"&gt;&lt;/a&gt;&lt;/noscript&gt;</t>
+  </si>
+  <si>
+    <t>murat</t>
+  </si>
+  <si>
+    <t>ali</t>
   </si>
 </sst>
 </file>
@@ -1936,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1D3A72-50FD-4F07-92E9-01FCCE09EFDD}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,7 +1968,9 @@
         <v>34</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="E2">
         <v>300</v>
       </c>
@@ -1973,6 +1981,9 @@
       </c>
       <c r="B3" s="16" t="s">
         <v>37</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
